--- a/biology/Botanique/Corymbe/Corymbe.xlsx
+++ b/biology/Botanique/Corymbe/Corymbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, le corymbe (du grec ancien κόρuμβος, korumbos « sommet, cime ») est une inflorescence simple, indéfinie, dans laquelle l'ensemble des fleurs se trouvent dans le même plan, un peu comme dans une ombelle, et leurs pédoncules insérés sur la tige de façon étagée comme dans une grappe, les pédoncules étant d'autant plus longs que les fleurs sont périphériques.
 C'est en quelque sorte une grappe aplatie. D'ailleurs, le mot "corymbe" vient du latin corymbus (« grappe de lierre »).
